--- a/public/file/format-import-lokasi.xlsx
+++ b/public/file/format-import-lokasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\system-sto-kbi\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B7596A-50BB-4073-885E-AE158DBE84DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4559B3A-859B-4BE9-840C-9351B976A7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{235D7ECB-1AB5-47C9-9C87-335BE7A2122F}"/>
   </bookViews>
@@ -80,7 +80,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,22 +103,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +461,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,155 +475,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
